--- a/cypress/downloads/Previsão de Recebimentos.xlsx
+++ b/cypress/downloads/Previsão de Recebimentos.xlsx
@@ -269,7 +269,7 @@
     <col width="13" min="14" max="14" customWidth="1"/>
     <col width="19.29" min="15" max="15" customWidth="1"/>
     <col width="9.43" min="16" max="16" customWidth="1"/>
-    <col width="12.14" min="17" max="17" customWidth="1"/>
+    <col width="12" min="17" max="17" customWidth="1"/>
     <col width="19.43" min="18" max="18" customWidth="1"/>
     <col width="21" min="19" max="19" customWidth="1"/>
     <col width="22" min="20" max="20" customWidth="1"/>
